--- a/sirketiscileri/employees.xlsx
+++ b/sirketiscileri/employees.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <x:si>
     <x:t>NAME</x:t>
   </x:si>
@@ -28,6 +28,15 @@
     <x:t>POSITION</x:t>
   </x:si>
   <x:si>
+    <x:t>USERNAME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PASSWORD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SALARY</x:t>
+  </x:si>
+  <x:si>
     <x:t>musa</x:t>
   </x:si>
   <x:si>
@@ -43,15 +52,24 @@
     <x:t>osmanov</x:t>
   </x:si>
   <x:si>
+    <x:t>ibo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kamil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hacilov</x:t>
+  </x:si>
+  <x:si>
+    <x:t>staff</x:t>
+  </x:si>
+  <x:si>
     <x:t>huseyn</x:t>
   </x:si>
   <x:si>
     <x:t>semedli</x:t>
   </x:si>
   <x:si>
-    <x:t>staff</x:t>
-  </x:si>
-  <x:si>
     <x:t>abdul</x:t>
   </x:si>
   <x:si>
@@ -80,12 +98,6 @@
   </x:si>
   <x:si>
     <x:t>zeynalov</x:t>
-  </x:si>
-  <x:si>
-    <x:t>qaqa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>hacilov</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -436,7 +448,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D10"/>
+  <x:dimension ref="A1:G10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -446,7 +458,7 @@
     <x:col min="2" max="2" width="8.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -459,131 +471,194 @@
       <x:c r="D1" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
         <x:v>456788</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1234567</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>675438</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>567893</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:7">
+      <x:c r="A6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>987654</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:7">
+      <x:c r="A7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>456738</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="n">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="s">
+    <x:row r="8" spans="1:7">
+      <x:c r="A8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>3546789</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>345786</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>345787</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="n">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="n">
-        <x:v>567893</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="n">
-        <x:v>987654</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="n">
-        <x:v>456738</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4">
-      <x:c r="A7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="n">
-        <x:v>3546789</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="n">
-        <x:v>345786</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="A9" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="n">
-        <x:v>345787</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="n">
-        <x:v>675438</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/sirketiscileri/employees.xlsx
+++ b/sirketiscileri/employees.xlsx
@@ -649,7 +649,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>345787</x:v>
+        <x:v>345788</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>15</x:v>
@@ -658,7 +658,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
